--- a/data/InstancesV1/InstancePolandV1.xlsx
+++ b/data/InstancesV1/InstancePolandV1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-laurencethoux/Documents/Thèse/ST_CtlSup/InstancesV1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maela\Documents\Travail\CS\2A\Projet Brain\DecisionBrain2\DecisionBrain\data\InstancesV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD4D379-8C54-8741-929B-FC5BAB79C4D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5B8CAD-BEFA-41E4-BF04-32E7DA23B935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53620" yWindow="4240" windowWidth="29260" windowHeight="15820" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{745759C5-7123-8144-B92E-2C75C62BB0A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -37,15 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitde</t>
   </si>
   <si>
     <t>Longitude</t>
@@ -644,85 +638,85 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -741,23 +735,23 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +767,7 @@
       <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -782,830 +776,830 @@
     <col min="8" max="8" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1">
         <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1">
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1">
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1">
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1">
         <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D19" s="1">
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1">
         <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120" s="1"/>
     </row>
   </sheetData>
@@ -1622,17 +1616,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
